--- a/data/Supplementary Table 1.xlsx
+++ b/data/Supplementary Table 1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="45" windowWidth="24720" windowHeight="12330"/>
+    <workbookView xWindow="6060" yWindow="45" windowWidth="24720" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Fig1Data" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5250" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5250" uniqueCount="218">
   <si>
     <t>Odor</t>
   </si>
@@ -611,9 +611,6 @@
     <t>20180522_601_R</t>
   </si>
   <si>
-    <t>O13a</t>
-  </si>
-  <si>
     <t>1_L</t>
   </si>
   <si>
@@ -648,6 +645,36 @@
   </si>
   <si>
     <t>6_R</t>
+  </si>
+  <si>
+    <t>21_L</t>
+  </si>
+  <si>
+    <t>21_R</t>
+  </si>
+  <si>
+    <t>22_L</t>
+  </si>
+  <si>
+    <t>22_R</t>
+  </si>
+  <si>
+    <t>23_L</t>
+  </si>
+  <si>
+    <t>23_R</t>
+  </si>
+  <si>
+    <t>24_L</t>
+  </si>
+  <si>
+    <t>24_R</t>
+  </si>
+  <si>
+    <t>25_L</t>
+  </si>
+  <si>
+    <t>25_R</t>
   </si>
 </sst>
 </file>
@@ -1043,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E353"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="Q225" sqref="Q225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,10 +1100,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
         <v>196</v>
-      </c>
-      <c r="B2" t="s">
-        <v>197</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -1090,10 +1117,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
         <v>196</v>
-      </c>
-      <c r="B3" t="s">
-        <v>197</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1107,10 +1134,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
         <v>196</v>
-      </c>
-      <c r="B4" t="s">
-        <v>197</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1124,10 +1151,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>196</v>
-      </c>
-      <c r="B5" t="s">
-        <v>197</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -1141,10 +1168,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
         <v>196</v>
-      </c>
-      <c r="B6" t="s">
-        <v>197</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1158,10 +1185,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
         <v>196</v>
-      </c>
-      <c r="B7" t="s">
-        <v>197</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -1175,10 +1202,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
         <v>196</v>
-      </c>
-      <c r="B8" t="s">
-        <v>197</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -1192,10 +1219,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
         <v>196</v>
-      </c>
-      <c r="B9" t="s">
-        <v>197</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -1209,10 +1236,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
         <v>196</v>
-      </c>
-      <c r="B10" t="s">
-        <v>197</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -1226,10 +1253,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
         <v>196</v>
-      </c>
-      <c r="B11" t="s">
-        <v>197</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -1243,10 +1270,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
         <v>196</v>
-      </c>
-      <c r="B12" t="s">
-        <v>197</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -1260,10 +1287,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
         <v>196</v>
-      </c>
-      <c r="B13" t="s">
-        <v>197</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -1277,10 +1304,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
         <v>196</v>
-      </c>
-      <c r="B14" t="s">
-        <v>197</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -1294,10 +1321,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
         <v>196</v>
-      </c>
-      <c r="B15" t="s">
-        <v>197</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -1311,10 +1338,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
         <v>196</v>
-      </c>
-      <c r="B16" t="s">
-        <v>197</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -1328,10 +1355,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
         <v>196</v>
-      </c>
-      <c r="B17" t="s">
-        <v>197</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -1345,10 +1372,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -1362,10 +1389,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
@@ -1379,10 +1406,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -1396,10 +1423,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
@@ -1413,10 +1440,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -1430,10 +1457,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
@@ -1447,10 +1474,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
@@ -1464,10 +1491,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
@@ -1481,10 +1508,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
@@ -1498,10 +1525,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -1515,10 +1542,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
@@ -1532,10 +1559,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
@@ -1549,10 +1576,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
@@ -1566,10 +1593,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C31" t="s">
         <v>12</v>
@@ -1583,10 +1610,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
@@ -1600,10 +1627,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C33" t="s">
         <v>12</v>
@@ -1617,10 +1644,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
@@ -1634,10 +1661,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -1651,10 +1678,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -1668,10 +1695,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
@@ -1685,10 +1712,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
@@ -1702,10 +1729,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
@@ -1719,10 +1746,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
@@ -1736,10 +1763,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
@@ -1753,10 +1780,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
@@ -1770,10 +1797,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
@@ -1787,10 +1814,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
@@ -1804,10 +1831,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
@@ -1821,10 +1848,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
@@ -1838,10 +1865,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
@@ -1855,10 +1882,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
@@ -1872,10 +1899,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B49" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C49" t="s">
         <v>12</v>
@@ -1889,10 +1916,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B50" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C50" t="s">
         <v>11</v>
@@ -1906,10 +1933,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C51" t="s">
         <v>11</v>
@@ -1923,10 +1950,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C52" t="s">
         <v>11</v>
@@ -1940,10 +1967,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B53" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C53" t="s">
         <v>11</v>
@@ -1957,10 +1984,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B54" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C54" t="s">
         <v>11</v>
@@ -1974,10 +2001,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B55" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C55" t="s">
         <v>11</v>
@@ -1991,10 +2018,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B56" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C56" t="s">
         <v>11</v>
@@ -2008,10 +2035,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B57" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C57" t="s">
         <v>11</v>
@@ -2025,10 +2052,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B58" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
@@ -2042,10 +2069,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B59" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C59" t="s">
         <v>12</v>
@@ -2059,10 +2086,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B60" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C60" t="s">
         <v>12</v>
@@ -2076,10 +2103,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B61" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C61" t="s">
         <v>12</v>
@@ -2093,10 +2120,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B62" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C62" t="s">
         <v>12</v>
@@ -2110,10 +2137,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B63" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C63" t="s">
         <v>12</v>
@@ -2127,10 +2154,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B64" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C64" t="s">
         <v>12</v>
@@ -2144,10 +2171,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B65" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C65" t="s">
         <v>12</v>
@@ -2161,10 +2188,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B66" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C66" t="s">
         <v>11</v>
@@ -2178,10 +2205,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B67" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C67" t="s">
         <v>11</v>
@@ -2195,10 +2222,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B68" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C68" t="s">
         <v>11</v>
@@ -2212,10 +2239,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B69" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C69" t="s">
         <v>11</v>
@@ -2229,10 +2256,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B70" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C70" t="s">
         <v>11</v>
@@ -2246,10 +2273,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B71" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C71" t="s">
         <v>11</v>
@@ -2263,10 +2290,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B72" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C72" t="s">
         <v>11</v>
@@ -2280,10 +2307,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B73" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C73" t="s">
         <v>11</v>
@@ -2297,10 +2324,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B74" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
@@ -2314,10 +2341,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
@@ -2331,10 +2358,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B76" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C76" t="s">
         <v>12</v>
@@ -2348,10 +2375,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B77" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C77" t="s">
         <v>12</v>
@@ -2365,10 +2392,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B78" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C78" t="s">
         <v>12</v>
@@ -2382,10 +2409,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B79" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C79" t="s">
         <v>12</v>
@@ -2399,10 +2426,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B80" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C80" t="s">
         <v>12</v>
@@ -2416,10 +2443,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B81" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C81" t="s">
         <v>12</v>
@@ -2433,10 +2460,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B82" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C82" t="s">
         <v>11</v>
@@ -2450,10 +2477,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B83" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C83" t="s">
         <v>11</v>
@@ -2467,10 +2494,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B84" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C84" t="s">
         <v>11</v>
@@ -2484,10 +2511,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B85" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C85" t="s">
         <v>11</v>
@@ -2501,10 +2528,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B86" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C86" t="s">
         <v>11</v>
@@ -2518,10 +2545,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B87" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C87" t="s">
         <v>11</v>
@@ -2535,10 +2562,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B88" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C88" t="s">
         <v>11</v>
@@ -2552,10 +2579,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B89" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C89" t="s">
         <v>11</v>
@@ -2569,10 +2596,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B90" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C90" t="s">
         <v>12</v>
@@ -2586,10 +2613,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B91" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C91" t="s">
         <v>12</v>
@@ -2603,10 +2630,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B92" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C92" t="s">
         <v>12</v>
@@ -2620,10 +2647,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B93" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C93" t="s">
         <v>12</v>
@@ -2637,10 +2664,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B94" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C94" t="s">
         <v>12</v>
@@ -2654,10 +2681,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B95" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C95" t="s">
         <v>12</v>
@@ -2671,10 +2698,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B96" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C96" t="s">
         <v>12</v>
@@ -2688,10 +2715,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B97" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C97" t="s">
         <v>12</v>
@@ -2705,10 +2732,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B98" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C98" t="s">
         <v>11</v>
@@ -2722,10 +2749,10 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B99" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C99" t="s">
         <v>11</v>
@@ -2739,10 +2766,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B100" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C100" t="s">
         <v>11</v>
@@ -2756,10 +2783,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B101" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C101" t="s">
         <v>11</v>
@@ -2773,10 +2800,10 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B102" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C102" t="s">
         <v>11</v>
@@ -2790,10 +2817,10 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B103" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C103" t="s">
         <v>11</v>
@@ -2807,10 +2834,10 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B104" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C104" t="s">
         <v>11</v>
@@ -2824,10 +2851,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B105" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C105" t="s">
         <v>11</v>
@@ -2841,10 +2868,10 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C106" t="s">
         <v>12</v>
@@ -2858,10 +2885,10 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B107" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C107" t="s">
         <v>12</v>
@@ -2875,10 +2902,10 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B108" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C108" t="s">
         <v>12</v>
@@ -2892,10 +2919,10 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B109" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C109" t="s">
         <v>12</v>
@@ -2909,10 +2936,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B110" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C110" t="s">
         <v>12</v>
@@ -2926,10 +2953,10 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B111" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C111" t="s">
         <v>12</v>
@@ -2943,10 +2970,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B112" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C112" t="s">
         <v>12</v>
@@ -2960,10 +2987,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B113" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C113" t="s">
         <v>12</v>
@@ -2977,10 +3004,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B114" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C114" t="s">
         <v>11</v>
@@ -2994,10 +3021,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B115" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C115" t="s">
         <v>11</v>
@@ -3011,10 +3038,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B116" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C116" t="s">
         <v>11</v>
@@ -3028,10 +3055,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B117" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C117" t="s">
         <v>11</v>
@@ -3045,10 +3072,10 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B118" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C118" t="s">
         <v>11</v>
@@ -3062,10 +3089,10 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B119" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C119" t="s">
         <v>11</v>
@@ -3079,10 +3106,10 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B120" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C120" t="s">
         <v>11</v>
@@ -3096,10 +3123,10 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B121" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C121" t="s">
         <v>11</v>
@@ -3113,10 +3140,10 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B122" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C122" t="s">
         <v>12</v>
@@ -3130,10 +3157,10 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B123" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C123" t="s">
         <v>12</v>
@@ -3147,10 +3174,10 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B124" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C124" t="s">
         <v>12</v>
@@ -3164,10 +3191,10 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B125" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C125" t="s">
         <v>12</v>
@@ -3181,10 +3208,10 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B126" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C126" t="s">
         <v>12</v>
@@ -3198,10 +3225,10 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B127" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C127" t="s">
         <v>12</v>
@@ -3215,10 +3242,10 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B128" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C128" t="s">
         <v>12</v>
@@ -3232,10 +3259,10 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B129" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C129" t="s">
         <v>12</v>
@@ -3249,10 +3276,10 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B130" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C130" t="s">
         <v>11</v>
@@ -3266,10 +3293,10 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B131" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C131" t="s">
         <v>11</v>
@@ -3283,10 +3310,10 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B132" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C132" t="s">
         <v>11</v>
@@ -3300,10 +3327,10 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B133" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C133" t="s">
         <v>11</v>
@@ -3317,10 +3344,10 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B134" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C134" t="s">
         <v>11</v>
@@ -3334,10 +3361,10 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B135" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C135" t="s">
         <v>11</v>
@@ -3351,10 +3378,10 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B136" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C136" t="s">
         <v>11</v>
@@ -3368,10 +3395,10 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B137" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C137" t="s">
         <v>11</v>
@@ -3385,10 +3412,10 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B138" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C138" t="s">
         <v>12</v>
@@ -3402,10 +3429,10 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B139" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C139" t="s">
         <v>12</v>
@@ -3419,10 +3446,10 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C140" t="s">
         <v>12</v>
@@ -3436,10 +3463,10 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B141" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C141" t="s">
         <v>12</v>
@@ -3453,10 +3480,10 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B142" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C142" t="s">
         <v>12</v>
@@ -3470,10 +3497,10 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B143" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C143" t="s">
         <v>12</v>
@@ -3487,10 +3514,10 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B144" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C144" t="s">
         <v>12</v>
@@ -3504,10 +3531,10 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B145" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C145" t="s">
         <v>12</v>
@@ -3521,10 +3548,10 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B146" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C146" t="s">
         <v>11</v>
@@ -3538,10 +3565,10 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B147" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C147" t="s">
         <v>11</v>
@@ -3555,10 +3582,10 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B148" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C148" t="s">
         <v>11</v>
@@ -3572,10 +3599,10 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B149" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C149" t="s">
         <v>11</v>
@@ -3589,10 +3616,10 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B150" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C150" t="s">
         <v>11</v>
@@ -3606,10 +3633,10 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B151" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C151" t="s">
         <v>11</v>
@@ -3623,10 +3650,10 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B152" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C152" t="s">
         <v>11</v>
@@ -3640,10 +3667,10 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B153" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C153" t="s">
         <v>11</v>
@@ -3657,10 +3684,10 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B154" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C154" t="s">
         <v>12</v>
@@ -3674,10 +3701,10 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B155" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C155" t="s">
         <v>12</v>
@@ -3691,10 +3718,10 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B156" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C156" t="s">
         <v>12</v>
@@ -3708,10 +3735,10 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B157" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C157" t="s">
         <v>12</v>
@@ -3725,10 +3752,10 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B158" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C158" t="s">
         <v>12</v>
@@ -3742,10 +3769,10 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B159" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C159" t="s">
         <v>12</v>
@@ -3759,10 +3786,10 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B160" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C160" t="s">
         <v>12</v>
@@ -3776,10 +3803,10 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B161" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C161" t="s">
         <v>12</v>
@@ -3793,10 +3820,10 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B162" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C162" t="s">
         <v>11</v>
@@ -3810,10 +3837,10 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B163" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C163" t="s">
         <v>11</v>
@@ -3827,10 +3854,10 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B164" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C164" t="s">
         <v>11</v>
@@ -3844,10 +3871,10 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B165" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C165" t="s">
         <v>11</v>
@@ -3861,10 +3888,10 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B166" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C166" t="s">
         <v>11</v>
@@ -3878,10 +3905,10 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B167" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C167" t="s">
         <v>11</v>
@@ -3895,10 +3922,10 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B168" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C168" t="s">
         <v>11</v>
@@ -3912,10 +3939,10 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B169" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C169" t="s">
         <v>11</v>
@@ -3929,10 +3956,10 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C170" t="s">
         <v>12</v>
@@ -3946,10 +3973,10 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B171" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C171" t="s">
         <v>12</v>
@@ -3963,10 +3990,10 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B172" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C172" t="s">
         <v>12</v>
@@ -3980,10 +4007,10 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B173" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C173" t="s">
         <v>12</v>
@@ -3997,10 +4024,10 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B174" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C174" t="s">
         <v>12</v>
@@ -4014,10 +4041,10 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B175" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C175" t="s">
         <v>12</v>
@@ -4031,10 +4058,10 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B176" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C176" t="s">
         <v>12</v>
@@ -4048,10 +4075,10 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B177" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C177" t="s">
         <v>12</v>
@@ -4065,10 +4092,10 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B178" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C178" t="s">
         <v>11</v>
@@ -4082,10 +4109,10 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B179" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C179" t="s">
         <v>11</v>
@@ -4099,10 +4126,10 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B180" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C180" t="s">
         <v>11</v>
@@ -4116,10 +4143,10 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B181" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C181" t="s">
         <v>11</v>
@@ -4133,10 +4160,10 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B182" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C182" t="s">
         <v>11</v>
@@ -4150,10 +4177,10 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B183" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C183" t="s">
         <v>11</v>
@@ -4167,10 +4194,10 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B184" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C184" t="s">
         <v>11</v>
@@ -4184,10 +4211,10 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B185" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C185" t="s">
         <v>11</v>
@@ -4201,10 +4228,10 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B186" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C186" t="s">
         <v>12</v>
@@ -4218,10 +4245,10 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B187" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C187" t="s">
         <v>12</v>
@@ -4235,10 +4262,10 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B188" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C188" t="s">
         <v>12</v>
@@ -4252,10 +4279,10 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B189" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C189" t="s">
         <v>12</v>
@@ -4269,10 +4296,10 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B190" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C190" t="s">
         <v>12</v>
@@ -4286,10 +4313,10 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B191" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C191" t="s">
         <v>12</v>
@@ -4303,10 +4330,10 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B192" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C192" t="s">
         <v>12</v>
@@ -4320,10 +4347,10 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="B193" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C193" t="s">
         <v>12</v>
@@ -4340,7 +4367,7 @@
         <v>43</v>
       </c>
       <c r="B194" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C194" t="s">
         <v>83</v>
@@ -4357,7 +4384,7 @@
         <v>43</v>
       </c>
       <c r="B195" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C195" t="s">
         <v>83</v>
@@ -4374,7 +4401,7 @@
         <v>43</v>
       </c>
       <c r="B196" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C196" t="s">
         <v>83</v>
@@ -4391,7 +4418,7 @@
         <v>43</v>
       </c>
       <c r="B197" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C197" t="s">
         <v>83</v>
@@ -4408,7 +4435,7 @@
         <v>43</v>
       </c>
       <c r="B198" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C198" t="s">
         <v>83</v>
@@ -4425,7 +4452,7 @@
         <v>43</v>
       </c>
       <c r="B199" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C199" t="s">
         <v>83</v>
@@ -4442,7 +4469,7 @@
         <v>43</v>
       </c>
       <c r="B200" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C200" t="s">
         <v>83</v>
@@ -4459,7 +4486,7 @@
         <v>43</v>
       </c>
       <c r="B201" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C201" t="s">
         <v>83</v>
@@ -4476,7 +4503,7 @@
         <v>43</v>
       </c>
       <c r="B202" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C202" t="s">
         <v>15</v>
@@ -4493,7 +4520,7 @@
         <v>43</v>
       </c>
       <c r="B203" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C203" t="s">
         <v>15</v>
@@ -4510,7 +4537,7 @@
         <v>43</v>
       </c>
       <c r="B204" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C204" t="s">
         <v>15</v>
@@ -4527,7 +4554,7 @@
         <v>43</v>
       </c>
       <c r="B205" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C205" t="s">
         <v>15</v>
@@ -4544,7 +4571,7 @@
         <v>43</v>
       </c>
       <c r="B206" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C206" t="s">
         <v>15</v>
@@ -4561,7 +4588,7 @@
         <v>43</v>
       </c>
       <c r="B207" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C207" t="s">
         <v>15</v>
@@ -4578,7 +4605,7 @@
         <v>43</v>
       </c>
       <c r="B208" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C208" t="s">
         <v>15</v>
@@ -4595,7 +4622,7 @@
         <v>43</v>
       </c>
       <c r="B209" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C209" t="s">
         <v>15</v>
@@ -4612,7 +4639,7 @@
         <v>43</v>
       </c>
       <c r="B210" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C210" t="s">
         <v>83</v>
@@ -4629,7 +4656,7 @@
         <v>43</v>
       </c>
       <c r="B211" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C211" t="s">
         <v>83</v>
@@ -4646,7 +4673,7 @@
         <v>43</v>
       </c>
       <c r="B212" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C212" t="s">
         <v>83</v>
@@ -4663,7 +4690,7 @@
         <v>43</v>
       </c>
       <c r="B213" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C213" t="s">
         <v>83</v>
@@ -4680,7 +4707,7 @@
         <v>43</v>
       </c>
       <c r="B214" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C214" t="s">
         <v>83</v>
@@ -4697,7 +4724,7 @@
         <v>43</v>
       </c>
       <c r="B215" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C215" t="s">
         <v>83</v>
@@ -4714,7 +4741,7 @@
         <v>43</v>
       </c>
       <c r="B216" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C216" t="s">
         <v>83</v>
@@ -4731,7 +4758,7 @@
         <v>43</v>
       </c>
       <c r="B217" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C217" t="s">
         <v>83</v>
@@ -4748,7 +4775,7 @@
         <v>43</v>
       </c>
       <c r="B218" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C218" t="s">
         <v>15</v>
@@ -4765,7 +4792,7 @@
         <v>43</v>
       </c>
       <c r="B219" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C219" t="s">
         <v>15</v>
@@ -4782,7 +4809,7 @@
         <v>43</v>
       </c>
       <c r="B220" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C220" t="s">
         <v>15</v>
@@ -4799,7 +4826,7 @@
         <v>43</v>
       </c>
       <c r="B221" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C221" t="s">
         <v>15</v>
@@ -4816,7 +4843,7 @@
         <v>43</v>
       </c>
       <c r="B222" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C222" t="s">
         <v>15</v>
@@ -4833,7 +4860,7 @@
         <v>43</v>
       </c>
       <c r="B223" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C223" t="s">
         <v>15</v>
@@ -4850,7 +4877,7 @@
         <v>43</v>
       </c>
       <c r="B224" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C224" t="s">
         <v>15</v>
@@ -4867,7 +4894,7 @@
         <v>43</v>
       </c>
       <c r="B225" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C225" t="s">
         <v>15</v>
@@ -4884,7 +4911,7 @@
         <v>43</v>
       </c>
       <c r="B226" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C226" t="s">
         <v>83</v>
@@ -4901,7 +4928,7 @@
         <v>43</v>
       </c>
       <c r="B227" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C227" t="s">
         <v>83</v>
@@ -4918,7 +4945,7 @@
         <v>43</v>
       </c>
       <c r="B228" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C228" t="s">
         <v>83</v>
@@ -4935,7 +4962,7 @@
         <v>43</v>
       </c>
       <c r="B229" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C229" t="s">
         <v>83</v>
@@ -4952,7 +4979,7 @@
         <v>43</v>
       </c>
       <c r="B230" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C230" t="s">
         <v>83</v>
@@ -4969,7 +4996,7 @@
         <v>43</v>
       </c>
       <c r="B231" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C231" t="s">
         <v>83</v>
@@ -4986,7 +5013,7 @@
         <v>43</v>
       </c>
       <c r="B232" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C232" t="s">
         <v>83</v>
@@ -5003,7 +5030,7 @@
         <v>43</v>
       </c>
       <c r="B233" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C233" t="s">
         <v>83</v>
@@ -5020,7 +5047,7 @@
         <v>43</v>
       </c>
       <c r="B234" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C234" t="s">
         <v>15</v>
@@ -5037,7 +5064,7 @@
         <v>43</v>
       </c>
       <c r="B235" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C235" t="s">
         <v>15</v>
@@ -5054,7 +5081,7 @@
         <v>43</v>
       </c>
       <c r="B236" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C236" t="s">
         <v>15</v>
@@ -5071,7 +5098,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C237" t="s">
         <v>15</v>
@@ -5088,7 +5115,7 @@
         <v>43</v>
       </c>
       <c r="B238" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C238" t="s">
         <v>15</v>
@@ -5105,7 +5132,7 @@
         <v>43</v>
       </c>
       <c r="B239" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C239" t="s">
         <v>15</v>
@@ -5122,7 +5149,7 @@
         <v>43</v>
       </c>
       <c r="B240" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C240" t="s">
         <v>15</v>
@@ -5139,7 +5166,7 @@
         <v>43</v>
       </c>
       <c r="B241" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C241" t="s">
         <v>15</v>
@@ -5156,7 +5183,7 @@
         <v>43</v>
       </c>
       <c r="B242" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C242" t="s">
         <v>83</v>
@@ -5173,7 +5200,7 @@
         <v>43</v>
       </c>
       <c r="B243" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C243" t="s">
         <v>83</v>
@@ -5190,7 +5217,7 @@
         <v>43</v>
       </c>
       <c r="B244" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C244" t="s">
         <v>83</v>
@@ -5207,7 +5234,7 @@
         <v>43</v>
       </c>
       <c r="B245" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C245" t="s">
         <v>83</v>
@@ -5224,7 +5251,7 @@
         <v>43</v>
       </c>
       <c r="B246" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C246" t="s">
         <v>83</v>
@@ -5241,7 +5268,7 @@
         <v>43</v>
       </c>
       <c r="B247" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C247" t="s">
         <v>83</v>
@@ -5258,7 +5285,7 @@
         <v>43</v>
       </c>
       <c r="B248" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C248" t="s">
         <v>83</v>
@@ -5275,7 +5302,7 @@
         <v>43</v>
       </c>
       <c r="B249" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C249" t="s">
         <v>83</v>
@@ -5292,7 +5319,7 @@
         <v>43</v>
       </c>
       <c r="B250" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C250" t="s">
         <v>15</v>
@@ -5309,7 +5336,7 @@
         <v>43</v>
       </c>
       <c r="B251" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C251" t="s">
         <v>15</v>
@@ -5326,7 +5353,7 @@
         <v>43</v>
       </c>
       <c r="B252" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C252" t="s">
         <v>15</v>
@@ -5343,7 +5370,7 @@
         <v>43</v>
       </c>
       <c r="B253" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C253" t="s">
         <v>15</v>
@@ -5360,7 +5387,7 @@
         <v>43</v>
       </c>
       <c r="B254" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C254" t="s">
         <v>15</v>
@@ -5377,7 +5404,7 @@
         <v>43</v>
       </c>
       <c r="B255" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C255" t="s">
         <v>15</v>
@@ -5394,7 +5421,7 @@
         <v>43</v>
       </c>
       <c r="B256" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C256" t="s">
         <v>15</v>
@@ -5411,7 +5438,7 @@
         <v>43</v>
       </c>
       <c r="B257" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C257" t="s">
         <v>15</v>
@@ -5428,7 +5455,7 @@
         <v>43</v>
       </c>
       <c r="B258" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C258" t="s">
         <v>83</v>
@@ -5445,7 +5472,7 @@
         <v>43</v>
       </c>
       <c r="B259" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C259" t="s">
         <v>83</v>
@@ -5462,7 +5489,7 @@
         <v>43</v>
       </c>
       <c r="B260" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C260" t="s">
         <v>83</v>
@@ -5479,7 +5506,7 @@
         <v>43</v>
       </c>
       <c r="B261" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C261" t="s">
         <v>83</v>
@@ -5496,7 +5523,7 @@
         <v>43</v>
       </c>
       <c r="B262" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C262" t="s">
         <v>83</v>
@@ -5513,7 +5540,7 @@
         <v>43</v>
       </c>
       <c r="B263" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C263" t="s">
         <v>83</v>
@@ -5530,7 +5557,7 @@
         <v>43</v>
       </c>
       <c r="B264" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C264" t="s">
         <v>83</v>
@@ -5547,7 +5574,7 @@
         <v>43</v>
       </c>
       <c r="B265" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C265" t="s">
         <v>83</v>
@@ -5564,7 +5591,7 @@
         <v>43</v>
       </c>
       <c r="B266" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C266" t="s">
         <v>15</v>
@@ -5581,7 +5608,7 @@
         <v>43</v>
       </c>
       <c r="B267" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C267" t="s">
         <v>15</v>
@@ -5598,7 +5625,7 @@
         <v>43</v>
       </c>
       <c r="B268" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C268" t="s">
         <v>15</v>
@@ -5615,7 +5642,7 @@
         <v>43</v>
       </c>
       <c r="B269" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C269" t="s">
         <v>15</v>
@@ -5632,7 +5659,7 @@
         <v>43</v>
       </c>
       <c r="B270" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C270" t="s">
         <v>15</v>
@@ -5649,7 +5676,7 @@
         <v>43</v>
       </c>
       <c r="B271" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C271" t="s">
         <v>15</v>
@@ -5666,7 +5693,7 @@
         <v>43</v>
       </c>
       <c r="B272" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C272" t="s">
         <v>15</v>
@@ -5683,7 +5710,7 @@
         <v>43</v>
       </c>
       <c r="B273" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C273" t="s">
         <v>15</v>
@@ -5700,7 +5727,7 @@
         <v>43</v>
       </c>
       <c r="B274" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C274" t="s">
         <v>83</v>
@@ -5717,7 +5744,7 @@
         <v>43</v>
       </c>
       <c r="B275" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C275" t="s">
         <v>83</v>
@@ -5734,7 +5761,7 @@
         <v>43</v>
       </c>
       <c r="B276" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C276" t="s">
         <v>83</v>
@@ -5751,7 +5778,7 @@
         <v>43</v>
       </c>
       <c r="B277" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C277" t="s">
         <v>83</v>
@@ -5768,7 +5795,7 @@
         <v>43</v>
       </c>
       <c r="B278" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C278" t="s">
         <v>83</v>
@@ -5785,7 +5812,7 @@
         <v>43</v>
       </c>
       <c r="B279" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C279" t="s">
         <v>83</v>
@@ -5802,7 +5829,7 @@
         <v>43</v>
       </c>
       <c r="B280" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C280" t="s">
         <v>83</v>
@@ -5819,7 +5846,7 @@
         <v>43</v>
       </c>
       <c r="B281" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C281" t="s">
         <v>83</v>
@@ -5836,7 +5863,7 @@
         <v>43</v>
       </c>
       <c r="B282" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C282" t="s">
         <v>15</v>
@@ -5853,7 +5880,7 @@
         <v>43</v>
       </c>
       <c r="B283" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C283" t="s">
         <v>15</v>
@@ -5870,7 +5897,7 @@
         <v>43</v>
       </c>
       <c r="B284" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C284" t="s">
         <v>15</v>
@@ -5887,7 +5914,7 @@
         <v>43</v>
       </c>
       <c r="B285" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C285" t="s">
         <v>15</v>
@@ -5904,7 +5931,7 @@
         <v>43</v>
       </c>
       <c r="B286" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C286" t="s">
         <v>15</v>
@@ -5921,7 +5948,7 @@
         <v>43</v>
       </c>
       <c r="B287" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C287" t="s">
         <v>15</v>
@@ -5938,7 +5965,7 @@
         <v>43</v>
       </c>
       <c r="B288" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C288" t="s">
         <v>15</v>
@@ -5955,7 +5982,7 @@
         <v>43</v>
       </c>
       <c r="B289" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C289" t="s">
         <v>15</v>
@@ -5972,7 +5999,7 @@
         <v>43</v>
       </c>
       <c r="B290" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C290" t="s">
         <v>83</v>
@@ -5989,7 +6016,7 @@
         <v>43</v>
       </c>
       <c r="B291" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C291" t="s">
         <v>83</v>
@@ -6006,7 +6033,7 @@
         <v>43</v>
       </c>
       <c r="B292" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C292" t="s">
         <v>83</v>
@@ -6023,7 +6050,7 @@
         <v>43</v>
       </c>
       <c r="B293" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C293" t="s">
         <v>83</v>
@@ -6040,7 +6067,7 @@
         <v>43</v>
       </c>
       <c r="B294" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C294" t="s">
         <v>83</v>
@@ -6057,7 +6084,7 @@
         <v>43</v>
       </c>
       <c r="B295" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C295" t="s">
         <v>83</v>
@@ -6074,7 +6101,7 @@
         <v>43</v>
       </c>
       <c r="B296" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C296" t="s">
         <v>83</v>
@@ -6091,7 +6118,7 @@
         <v>43</v>
       </c>
       <c r="B297" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C297" t="s">
         <v>83</v>
@@ -6108,7 +6135,7 @@
         <v>43</v>
       </c>
       <c r="B298" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C298" t="s">
         <v>15</v>
@@ -6125,7 +6152,7 @@
         <v>43</v>
       </c>
       <c r="B299" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C299" t="s">
         <v>15</v>
@@ -6142,7 +6169,7 @@
         <v>43</v>
       </c>
       <c r="B300" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C300" t="s">
         <v>15</v>
@@ -6159,7 +6186,7 @@
         <v>43</v>
       </c>
       <c r="B301" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C301" t="s">
         <v>15</v>
@@ -6176,7 +6203,7 @@
         <v>43</v>
       </c>
       <c r="B302" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C302" t="s">
         <v>15</v>
@@ -6193,7 +6220,7 @@
         <v>43</v>
       </c>
       <c r="B303" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C303" t="s">
         <v>15</v>
@@ -6210,7 +6237,7 @@
         <v>43</v>
       </c>
       <c r="B304" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C304" t="s">
         <v>15</v>
@@ -6227,7 +6254,7 @@
         <v>43</v>
       </c>
       <c r="B305" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C305" t="s">
         <v>15</v>
@@ -6244,7 +6271,7 @@
         <v>43</v>
       </c>
       <c r="B306" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C306" t="s">
         <v>83</v>
@@ -6261,7 +6288,7 @@
         <v>43</v>
       </c>
       <c r="B307" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C307" t="s">
         <v>83</v>
@@ -6278,7 +6305,7 @@
         <v>43</v>
       </c>
       <c r="B308" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C308" t="s">
         <v>83</v>
@@ -6295,7 +6322,7 @@
         <v>43</v>
       </c>
       <c r="B309" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C309" t="s">
         <v>83</v>
@@ -6312,7 +6339,7 @@
         <v>43</v>
       </c>
       <c r="B310" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C310" t="s">
         <v>83</v>
@@ -6329,7 +6356,7 @@
         <v>43</v>
       </c>
       <c r="B311" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C311" t="s">
         <v>83</v>
@@ -6346,7 +6373,7 @@
         <v>43</v>
       </c>
       <c r="B312" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C312" t="s">
         <v>83</v>
@@ -6363,7 +6390,7 @@
         <v>43</v>
       </c>
       <c r="B313" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C313" t="s">
         <v>83</v>
@@ -6380,7 +6407,7 @@
         <v>43</v>
       </c>
       <c r="B314" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C314" t="s">
         <v>15</v>
@@ -6397,7 +6424,7 @@
         <v>43</v>
       </c>
       <c r="B315" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C315" t="s">
         <v>15</v>
@@ -6414,7 +6441,7 @@
         <v>43</v>
       </c>
       <c r="B316" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C316" t="s">
         <v>15</v>
@@ -6431,7 +6458,7 @@
         <v>43</v>
       </c>
       <c r="B317" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C317" t="s">
         <v>15</v>
@@ -6448,7 +6475,7 @@
         <v>43</v>
       </c>
       <c r="B318" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C318" t="s">
         <v>15</v>
@@ -6465,7 +6492,7 @@
         <v>43</v>
       </c>
       <c r="B319" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C319" t="s">
         <v>15</v>
@@ -6482,7 +6509,7 @@
         <v>43</v>
       </c>
       <c r="B320" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C320" t="s">
         <v>15</v>
@@ -6499,7 +6526,7 @@
         <v>43</v>
       </c>
       <c r="B321" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C321" t="s">
         <v>15</v>
@@ -6516,7 +6543,7 @@
         <v>43</v>
       </c>
       <c r="B322" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C322" t="s">
         <v>83</v>
@@ -6533,7 +6560,7 @@
         <v>43</v>
       </c>
       <c r="B323" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C323" t="s">
         <v>83</v>
@@ -6550,7 +6577,7 @@
         <v>43</v>
       </c>
       <c r="B324" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C324" t="s">
         <v>83</v>
@@ -6567,7 +6594,7 @@
         <v>43</v>
       </c>
       <c r="B325" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C325" t="s">
         <v>83</v>
@@ -6584,7 +6611,7 @@
         <v>43</v>
       </c>
       <c r="B326" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C326" t="s">
         <v>83</v>
@@ -6601,7 +6628,7 @@
         <v>43</v>
       </c>
       <c r="B327" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C327" t="s">
         <v>83</v>
@@ -6618,7 +6645,7 @@
         <v>43</v>
       </c>
       <c r="B328" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C328" t="s">
         <v>83</v>
@@ -6635,7 +6662,7 @@
         <v>43</v>
       </c>
       <c r="B329" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C329" t="s">
         <v>83</v>
@@ -6652,7 +6679,7 @@
         <v>43</v>
       </c>
       <c r="B330" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C330" t="s">
         <v>15</v>
@@ -6669,7 +6696,7 @@
         <v>43</v>
       </c>
       <c r="B331" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C331" t="s">
         <v>15</v>
@@ -6686,7 +6713,7 @@
         <v>43</v>
       </c>
       <c r="B332" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C332" t="s">
         <v>15</v>
@@ -6703,7 +6730,7 @@
         <v>43</v>
       </c>
       <c r="B333" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C333" t="s">
         <v>15</v>
@@ -6720,7 +6747,7 @@
         <v>43</v>
       </c>
       <c r="B334" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C334" t="s">
         <v>15</v>
@@ -6737,7 +6764,7 @@
         <v>43</v>
       </c>
       <c r="B335" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C335" t="s">
         <v>15</v>
@@ -6754,7 +6781,7 @@
         <v>43</v>
       </c>
       <c r="B336" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C336" t="s">
         <v>15</v>
@@ -6771,7 +6798,7 @@
         <v>43</v>
       </c>
       <c r="B337" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C337" t="s">
         <v>15</v>
@@ -6788,7 +6815,7 @@
         <v>43</v>
       </c>
       <c r="B338" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C338" t="s">
         <v>83</v>
@@ -6805,7 +6832,7 @@
         <v>43</v>
       </c>
       <c r="B339" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C339" t="s">
         <v>83</v>
@@ -6822,7 +6849,7 @@
         <v>43</v>
       </c>
       <c r="B340" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C340" t="s">
         <v>83</v>
@@ -6839,7 +6866,7 @@
         <v>43</v>
       </c>
       <c r="B341" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C341" t="s">
         <v>83</v>
@@ -6856,7 +6883,7 @@
         <v>43</v>
       </c>
       <c r="B342" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C342" t="s">
         <v>83</v>
@@ -6873,7 +6900,7 @@
         <v>43</v>
       </c>
       <c r="B343" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C343" t="s">
         <v>83</v>
@@ -6890,7 +6917,7 @@
         <v>43</v>
       </c>
       <c r="B344" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C344" t="s">
         <v>83</v>
@@ -6907,7 +6934,7 @@
         <v>43</v>
       </c>
       <c r="B345" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C345" t="s">
         <v>83</v>
@@ -6924,7 +6951,7 @@
         <v>43</v>
       </c>
       <c r="B346" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C346" t="s">
         <v>15</v>
@@ -6941,7 +6968,7 @@
         <v>43</v>
       </c>
       <c r="B347" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C347" t="s">
         <v>15</v>
@@ -6958,7 +6985,7 @@
         <v>43</v>
       </c>
       <c r="B348" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C348" t="s">
         <v>15</v>
@@ -6975,7 +7002,7 @@
         <v>43</v>
       </c>
       <c r="B349" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C349" t="s">
         <v>15</v>
@@ -6992,7 +7019,7 @@
         <v>43</v>
       </c>
       <c r="B350" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C350" t="s">
         <v>15</v>
@@ -7009,7 +7036,7 @@
         <v>43</v>
       </c>
       <c r="B351" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C351" t="s">
         <v>15</v>
@@ -7026,7 +7053,7 @@
         <v>43</v>
       </c>
       <c r="B352" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C352" t="s">
         <v>15</v>
@@ -7043,7 +7070,7 @@
         <v>43</v>
       </c>
       <c r="B353" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C353" t="s">
         <v>15</v>
